--- a/output/fit_clients/fit_round_480.xlsx
+++ b/output/fit_clients/fit_round_480.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2187063020.852499</v>
+        <v>2040720576.243625</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09725415027014837</v>
+        <v>0.09585051938610561</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03974708844643791</v>
+        <v>0.03497569372066024</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1093531531.214166</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2370984176.104572</v>
+        <v>2449714509.620145</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1567095423863011</v>
+        <v>0.1780083939335146</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05041658565385652</v>
+        <v>0.0312186004545926</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1185492185.582967</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4513573002.838507</v>
+        <v>4273123462.021375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1242156083999014</v>
+        <v>0.1431461494028244</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03722906328959579</v>
+        <v>0.03719948004155257</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>173</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2256786552.003406</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3091473389.366788</v>
+        <v>3764253084.739838</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09198778095702428</v>
+        <v>0.08065276675494702</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04896723944829261</v>
+        <v>0.0435093562965967</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>177</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1545736758.537054</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2668023701.991459</v>
+        <v>2670955672.231162</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09642472616954556</v>
+        <v>0.1106781005517714</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04400824993942449</v>
+        <v>0.03432568434516742</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>91</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1334011808.313774</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2481240825.663319</v>
+        <v>3040085267.933426</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08229123834800771</v>
+        <v>0.09515689163609892</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03492001918188785</v>
+        <v>0.03738049814862741</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>150</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1240620427.667016</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2396994697.392276</v>
+        <v>3423158036.754537</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2098298138779578</v>
+        <v>0.1439201943884112</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0258037023559314</v>
+        <v>0.0289991915662404</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>153</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1198497344.590825</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2028622603.596254</v>
+        <v>1547340511.374902</v>
       </c>
       <c r="F9" t="n">
-        <v>0.158937112873323</v>
+        <v>0.169090555522502</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0329804300952817</v>
+        <v>0.03184254515435832</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1014311324.462902</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5746648294.376522</v>
+        <v>4404848530.068611</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1842937151775408</v>
+        <v>0.1399985964709922</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05275051101347653</v>
+        <v>0.03415881637722162</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>201</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2873324304.364454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3492681259.064868</v>
+        <v>4193317050.551725</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1907771430261616</v>
+        <v>0.1373990237725045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04741458526894772</v>
+        <v>0.03736893512166337</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>198</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1746340606.898234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2101311230.965819</v>
+        <v>2929926178.195017</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1283586324599758</v>
+        <v>0.1632476656839065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04858866530560873</v>
+        <v>0.04658225130863951</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>162</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1050655551.206601</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5309456690.353516</v>
+        <v>4642279101.469001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07729492496700954</v>
+        <v>0.06615209592158974</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02035791748184107</v>
+        <v>0.02044770470181849</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>161</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2654728333.61957</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3079167454.632483</v>
+        <v>2474743896.686968</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1358816789602962</v>
+        <v>0.1400608948538565</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03858758402277789</v>
+        <v>0.03936778814904892</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>153</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1539583756.044445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1307195510.914195</v>
+        <v>1328704737.688771</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07277323875397064</v>
+        <v>0.07506692845064006</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04517556026429322</v>
+        <v>0.03379181441877373</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>653597797.2657256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2054520740.693815</v>
+        <v>2597402185.551383</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1087060154330024</v>
+        <v>0.0720558560877276</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03631351551167283</v>
+        <v>0.03923593888565356</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1027260440.980048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4521636830.149756</v>
+        <v>4298467205.300771</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1225329161551493</v>
+        <v>0.1246496273601505</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04519891574670096</v>
+        <v>0.0339148165427959</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2260818423.86875</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3222061681.154014</v>
+        <v>3894618716.001249</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1124067004383673</v>
+        <v>0.1501090280685857</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02432690643455045</v>
+        <v>0.02759988635938524</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>157</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1611030854.756061</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>855369923.5735855</v>
+        <v>855254222.8435243</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1848955327321786</v>
+        <v>0.1154266309059777</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01800687994340203</v>
+        <v>0.02533488894340648</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>427684955.8319591</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2420417854.508983</v>
+        <v>1988992848.944025</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1606369625007315</v>
+        <v>0.09859331197784828</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01919256305258963</v>
+        <v>0.0193905313874368</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1210208908.826589</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2445192246.227151</v>
+        <v>1755440956.403486</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08015501558075065</v>
+        <v>0.07794787999473506</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03433140003473652</v>
+        <v>0.04333066894138186</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1222596116.482323</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3520797794.399648</v>
+        <v>3475324842.633786</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1124529203798402</v>
+        <v>0.1410526363567221</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04139165874762402</v>
+        <v>0.04369031523954628</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1760398927.567603</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1415402456.625622</v>
+        <v>1260697355.547988</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1292731644756341</v>
+        <v>0.1465342585395622</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03819775580007893</v>
+        <v>0.04683044887214173</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>707701228.518513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3514765685.284116</v>
+        <v>2841408228.847997</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1247029972176661</v>
+        <v>0.1114985543808232</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02766980840789147</v>
+        <v>0.02433650062297853</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>140</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1757382843.290985</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1010822343.124955</v>
+        <v>1126071523.332558</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08037336534967369</v>
+        <v>0.07693078204732447</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02402567787553426</v>
+        <v>0.02610777608753457</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>505411233.0973043</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1303284219.528816</v>
+        <v>1405557420.203123</v>
       </c>
       <c r="F26" t="n">
-        <v>0.117101247499884</v>
+        <v>0.1102826746211678</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02996865504759293</v>
+        <v>0.03423935892948452</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>651642156.1048353</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3750193709.445582</v>
+        <v>2870444579.261626</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1534169274079843</v>
+        <v>0.1245730874532648</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02571349495559561</v>
+        <v>0.01937288911382913</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1875096877.32758</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2433455711.123461</v>
+        <v>2813490373.224137</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1524082869947135</v>
+        <v>0.1482702882590649</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03028523291215083</v>
+        <v>0.05006279458468542</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1216727817.608018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4105658968.492667</v>
+        <v>5493820916.710338</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09905645455564789</v>
+        <v>0.1087755788630679</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03607357156826377</v>
+        <v>0.03316046207322042</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>212</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2052829493.842931</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2364746400.055673</v>
+        <v>1806258294.388895</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1363437540799892</v>
+        <v>0.0967394212406348</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03665944958405908</v>
+        <v>0.03134242561101349</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1182373279.02771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1391130721.141508</v>
+        <v>1047940962.888225</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07268682272229189</v>
+        <v>0.07497682356160326</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03707477777567605</v>
+        <v>0.04305550876679153</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>695565267.0730988</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1317237837.914693</v>
+        <v>1481717705.112049</v>
       </c>
       <c r="F32" t="n">
-        <v>0.104777418991949</v>
+        <v>0.07905959992258532</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0321950979864042</v>
+        <v>0.03459248631016356</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>658618949.4606725</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2940882776.656485</v>
+        <v>2605057866.312621</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1669364807875127</v>
+        <v>0.1888416584259129</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05250599175020736</v>
+        <v>0.04131199088610621</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>146</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1470441388.997852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>973168177.0688763</v>
+        <v>1005721650.618885</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07427263671789941</v>
+        <v>0.07733094550687993</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02635005230071838</v>
+        <v>0.02059375704193083</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>486584130.8107081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>976293621.4299401</v>
+        <v>1244893537.78035</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07922568783794662</v>
+        <v>0.1039306788260702</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03577408403921235</v>
+        <v>0.03012864597634369</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>488146834.5069904</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3137972317.182056</v>
+        <v>2133590255.005183</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1219945692166071</v>
+        <v>0.1159987141305898</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02382760126411907</v>
+        <v>0.02166237151452962</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>122</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1568986129.491655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1986652929.728435</v>
+        <v>2209917970.551274</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09173309712183862</v>
+        <v>0.07611985241855401</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03841804975095449</v>
+        <v>0.04078391530194696</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>128</v>
-      </c>
-      <c r="J37" t="n">
-        <v>993326490.3394716</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1359348468.922466</v>
+        <v>2150124740.873649</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08756497536537508</v>
+        <v>0.10848532102549</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02803629490110683</v>
+        <v>0.03957579218615823</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>679674303.6054223</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1679749460.166909</v>
+        <v>1532254252.911329</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1480200989458326</v>
+        <v>0.1312359232836826</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03005859447739338</v>
+        <v>0.0275144882329117</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>839874773.247695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1596940125.206299</v>
+        <v>1142704865.390168</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1171878078587431</v>
+        <v>0.1405211025342901</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05290235477725679</v>
+        <v>0.05065270561906974</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>798470004.5604745</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2471897788.129275</v>
+        <v>2071405483.764605</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1052438280848262</v>
+        <v>0.1338878980040334</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03454226334589913</v>
+        <v>0.04101094795701051</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>116</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1235948922.163394</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2884131594.964064</v>
+        <v>3286478791.063063</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08706480518680255</v>
+        <v>0.08231572882059256</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03217750778878243</v>
+        <v>0.04351493708278708</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>156</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1442065749.991725</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2397253508.744517</v>
+        <v>2834574254.857857</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1292368852283875</v>
+        <v>0.1918978657928082</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02392380844825857</v>
+        <v>0.01576475861628828</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>167</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1198626813.389937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2178381092.269623</v>
+        <v>2284961074.185941</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09237244316850396</v>
+        <v>0.09174068345905223</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02512799503248963</v>
+        <v>0.02923423658919604</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1089190688.092625</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2411874137.323508</v>
+        <v>2084308933.939444</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1427731367654497</v>
+        <v>0.1175402732450625</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04179532537041683</v>
+        <v>0.05454229680348172</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1205937101.047664</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4572708198.082004</v>
+        <v>5604479003.124208</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1109545577569939</v>
+        <v>0.1193120052806379</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04041240404567409</v>
+        <v>0.03780563599377903</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>170</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2286354101.426397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4388149967.849241</v>
+        <v>3723638136.941462</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1509349699776018</v>
+        <v>0.1335382551553273</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05389019780954641</v>
+        <v>0.04197049576822454</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2194075005.1147</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3011803957.419182</v>
+        <v>3948051335.501052</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07628972608573312</v>
+        <v>0.09517071601436417</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03727433541731571</v>
+        <v>0.03804278312980903</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>156</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1505902070.512877</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1408664923.76496</v>
+        <v>1407853820.567249</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1768281420270867</v>
+        <v>0.1694188736797925</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03740190784144726</v>
+        <v>0.02955007350620598</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>704332508.1406509</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2572373483.173906</v>
+        <v>4043005858.892827</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1166264711474456</v>
+        <v>0.1191662184427246</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04770541511876347</v>
+        <v>0.03888021064786326</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>163</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1286186831.880238</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>961900874.9496104</v>
+        <v>1473004578.965726</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1298581162877377</v>
+        <v>0.1393187964996733</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04892256989550343</v>
+        <v>0.03673578212922665</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>480950527.642778</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4843860119.936758</v>
+        <v>4516284370.299512</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09876137297726842</v>
+        <v>0.1122023970619142</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05227148581804206</v>
+        <v>0.05482774487147798</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>197</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2421930066.804442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2687342672.587007</v>
+        <v>3209658299.621653</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1337964142763853</v>
+        <v>0.1720244229881928</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02829236634229914</v>
+        <v>0.0351593103898823</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>138</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1343671390.302131</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3354620963.5358</v>
+        <v>3982825871.686703</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1391807469511566</v>
+        <v>0.1395422252919315</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04254560405164767</v>
+        <v>0.03362124618108628</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>155</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1677310495.192426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4165267792.114107</v>
+        <v>4970537878.391396</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1961195970818591</v>
+        <v>0.2233594746489239</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02511671208465024</v>
+        <v>0.02722393873380599</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2082633878.267808</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1598841550.913841</v>
+        <v>1167739507.3496</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1210341499735468</v>
+        <v>0.144575736037985</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04895794668255624</v>
+        <v>0.04056732834449311</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>799420803.0643106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3297580853.522344</v>
+        <v>3370097895.918493</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1660536457825785</v>
+        <v>0.1759603718727392</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02138692689780784</v>
+        <v>0.02484209727029758</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>152</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1648790456.174189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1599770060.520326</v>
+        <v>1351694972.226023</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1804236829281234</v>
+        <v>0.1315055635573238</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03517721390015389</v>
+        <v>0.03427684955495496</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>799885052.3101528</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3882309165.312149</v>
+        <v>4569869199.28319</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09661903077520864</v>
+        <v>0.09207462515679055</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04235574960571418</v>
+        <v>0.05017911045535377</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>136</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1941154564.306874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2734563990.180515</v>
+        <v>3173891808.307536</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1990894225997647</v>
+        <v>0.1522020613176412</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02761033679491965</v>
+        <v>0.02886359558019276</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>150</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1367282037.620567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3294683005.592241</v>
+        <v>2949332908.257652</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1547166910755399</v>
+        <v>0.1191487569450341</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02354564309636495</v>
+        <v>0.03028395869268302</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>164</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1647341455.492974</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1281639665.047571</v>
+        <v>2054412866.455724</v>
       </c>
       <c r="F62" t="n">
-        <v>0.161815411336327</v>
+        <v>0.150898337219028</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03306625075904042</v>
+        <v>0.0371478028658578</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>640819782.8586328</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3811493161.600326</v>
+        <v>5284781740.182583</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1043051440962263</v>
+        <v>0.0729650360483623</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02995428303304253</v>
+        <v>0.03382367106261462</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1905746651.618048</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3722493271.630346</v>
+        <v>5214155306.836043</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1797232352411271</v>
+        <v>0.1227207612883295</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02927651409088207</v>
+        <v>0.02145831373218462</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>150</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1861246652.176698</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4483206356.66721</v>
+        <v>5046015022.797485</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1504243993220738</v>
+        <v>0.1603541715299802</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02400630898641821</v>
+        <v>0.02135796540344184</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>172</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2241603168.094668</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4147598756.108521</v>
+        <v>4667866559.218821</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1225342604233678</v>
+        <v>0.1257987856537267</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04155643513041335</v>
+        <v>0.04994692080735329</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>141</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2073799359.569736</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3192111034.632499</v>
+        <v>3184434974.742563</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07743281053287003</v>
+        <v>0.07720441434431927</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0497825297840858</v>
+        <v>0.04191842140309569</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>154</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1596055519.33801</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5507465848.954876</v>
+        <v>5346505299.211258</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1558702453269648</v>
+        <v>0.1111082368976129</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03373046254581556</v>
+        <v>0.04231362917340407</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>153</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2753733011.653512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1828763144.116296</v>
+        <v>2179084280.656047</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1455630851871298</v>
+        <v>0.1715922647772548</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04739896242657319</v>
+        <v>0.03640107205311366</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>914381554.8812184</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3413414875.649038</v>
+        <v>3644240426.425793</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09313231851705102</v>
+        <v>0.06585879778921869</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03753048888130563</v>
+        <v>0.03500117521897699</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>137</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1706707441.69973</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4928560655.460551</v>
+        <v>4637412533.949607</v>
       </c>
       <c r="F71" t="n">
-        <v>0.158604573498784</v>
+        <v>0.1474334494205788</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02369517705223647</v>
+        <v>0.02863929700431154</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>174</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2464280428.110444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2172868540.430749</v>
+        <v>1557528250.977995</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07695919265377088</v>
+        <v>0.06765462565609842</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03981283817716536</v>
+        <v>0.03364507622401892</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1086434188.674021</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2526965737.636422</v>
+        <v>2582899544.017326</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0758721163685839</v>
+        <v>0.08578204809959203</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05085772141109497</v>
+        <v>0.04764386681606497</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>181</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1263482908.152753</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2994847217.094395</v>
+        <v>2431585907.145431</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1566811468287586</v>
+        <v>0.1592845664152877</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02553710821940547</v>
+        <v>0.02172904860536197</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>163</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1497423674.411143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1560441701.985783</v>
+        <v>2130108667.665937</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1138849136112491</v>
+        <v>0.1174024001719906</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02642578446587329</v>
+        <v>0.03041298440348993</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>780220856.3714423</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3517156517.236079</v>
+        <v>3951609738.687746</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1154172981068295</v>
+        <v>0.115854000319989</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02989787391159265</v>
+        <v>0.02669772726923177</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1758578223.111727</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2110388235.100801</v>
+        <v>1488490956.199646</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1223653980234361</v>
+        <v>0.1692246008604112</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02648257159381065</v>
+        <v>0.02325084039118185</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1055194195.366613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4751881638.538472</v>
+        <v>4271487051.690763</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09146526850307653</v>
+        <v>0.1133095256591901</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04640225169910883</v>
+        <v>0.04723840974319404</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>166</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2375940731.209347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1347079823.711843</v>
+        <v>1676382925.933715</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1097615461796929</v>
+        <v>0.1646188202807465</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0369751580845165</v>
+        <v>0.02642665929647369</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>673539919.305058</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5499794164.834696</v>
+        <v>5529693835.21959</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08947721174957238</v>
+        <v>0.1059299820412527</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03564946211490433</v>
+        <v>0.03357891250646747</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2749897156.498555</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3291835486.424069</v>
+        <v>3682462574.679861</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1302447672575569</v>
+        <v>0.1351424799552568</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02714999063319739</v>
+        <v>0.02796672091686491</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1645917680.152472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4122889861.339595</v>
+        <v>4445538353.020074</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1978119872297069</v>
+        <v>0.1881431662795798</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02412075679855858</v>
+        <v>0.02612863174033036</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>168</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2061444963.594962</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1766937539.498011</v>
+        <v>2355841243.525481</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1272902381194323</v>
+        <v>0.1089654247929705</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0379798873515212</v>
+        <v>0.02758490772889211</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>883468726.0924877</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1814270920.203354</v>
+        <v>1663947985.78046</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07574000556763597</v>
+        <v>0.1002217680884769</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04119086439655924</v>
+        <v>0.0419012721487</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>907135492.3149112</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2900211290.620825</v>
+        <v>3163419303.511508</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1448511519644553</v>
+        <v>0.13330649583902</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0364920901002768</v>
+        <v>0.04836370663305172</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>180</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1450105694.468279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2199528677.998158</v>
+        <v>1906173164.567784</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1714453722801919</v>
+        <v>0.1228193799399609</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02669055262803093</v>
+        <v>0.01725017790482208</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1099764394.391103</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>922397716.0959761</v>
+        <v>1507710225.00776</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1881747455187463</v>
+        <v>0.1312487170545012</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0280456157615457</v>
+        <v>0.03904587976350226</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>461198842.510902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3667987760.10379</v>
+        <v>3098269451.93331</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1352777367880801</v>
+        <v>0.1383351220838651</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03741744121160333</v>
+        <v>0.02890777743069857</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>190</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1833993976.529629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2688386114.342222</v>
+        <v>3413125639.587771</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1444200119786788</v>
+        <v>0.1018381923170478</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02778286603668557</v>
+        <v>0.029781665236684</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>163</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1344193118.137778</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1940467149.046494</v>
+        <v>2103184979.684926</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1040166086991682</v>
+        <v>0.1051025981581159</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0521738137193333</v>
+        <v>0.04917527654223658</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>970233633.875268</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1328783810.262882</v>
+        <v>1879290639.52999</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1939799733894281</v>
+        <v>0.1206064916220051</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04024196864298912</v>
+        <v>0.04776338655810114</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>664391966.8931766</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1891664008.335786</v>
+        <v>2679581197.127405</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0884406083392332</v>
+        <v>0.07272460032933557</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04353545935970798</v>
+        <v>0.03647428283698255</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>945831942.1927724</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3648774355.307435</v>
+        <v>4601573908.20153</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1070646002896047</v>
+        <v>0.09399077990022291</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04046286942760256</v>
+        <v>0.04673946661755431</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>143</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1824387201.013351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2359151176.031171</v>
+        <v>2055198185.822847</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1099328807713714</v>
+        <v>0.1496683514054229</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02973084579916568</v>
+        <v>0.03240041519845061</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1179575633.19159</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2837189789.795978</v>
+        <v>2780654750.481</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123162780128121</v>
+        <v>0.1383732445386365</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04679641637336867</v>
+        <v>0.0457682341629904</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1418594906.472906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2308879306.440923</v>
+        <v>2241700315.837828</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1280728469390217</v>
+        <v>0.103015420553067</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0304239598970974</v>
+        <v>0.04692028453516083</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1154439607.241999</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3498731721.087112</v>
+        <v>4249713560.494362</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1641811571058442</v>
+        <v>0.1212645077846507</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02374672146871207</v>
+        <v>0.02729220221990636</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>154</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1749365876.632767</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3122506799.915163</v>
+        <v>2516078974.946381</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09023886461620045</v>
+        <v>0.1013044233439676</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02185562584562433</v>
+        <v>0.03052059766553597</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1561253392.9738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3151190314.004151</v>
+        <v>3085366070.260388</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1005264176815018</v>
+        <v>0.1413790470060647</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03246067221357365</v>
+        <v>0.03164592059651482</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>151</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1575595153.911218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3226585322.133692</v>
+        <v>3634061459.451392</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1533471233731334</v>
+        <v>0.1176459783539667</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02056048635163844</v>
+        <v>0.02722229102551109</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>147</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1613292670.027746</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2516932007.334346</v>
+        <v>2451375773.67853</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2141722364423964</v>
+        <v>0.1620538892595805</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05300378730177549</v>
+        <v>0.03623823656989195</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>196</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1258466028.881073</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_480.xlsx
+++ b/output/fit_clients/fit_round_480.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2040720576.243625</v>
+        <v>1981625001.373178</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09585051938610561</v>
+        <v>0.1016773338972897</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03497569372066024</v>
+        <v>0.0346905740344761</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2449714509.620145</v>
+        <v>2431818302.150602</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1780083939335146</v>
+        <v>0.1392528087694821</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0312186004545926</v>
+        <v>0.03666303087138242</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4273123462.021375</v>
+        <v>4331545168.107027</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1431461494028244</v>
+        <v>0.1391430600074149</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03719948004155257</v>
+        <v>0.02796908760888169</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3764253084.739838</v>
+        <v>2795581161.952155</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08065276675494702</v>
+        <v>0.09154025871223796</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0435093562965967</v>
+        <v>0.03424279589798223</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2670955672.231162</v>
+        <v>1760005294.245182</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1106781005517714</v>
+        <v>0.1027390774447908</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03432568434516742</v>
+        <v>0.05253527515100314</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3040085267.933426</v>
+        <v>2219020495.452343</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09515689163609892</v>
+        <v>0.08089584596174174</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03738049814862741</v>
+        <v>0.04220421506236077</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3423158036.754537</v>
+        <v>2517321820.669311</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1439201943884112</v>
+        <v>0.1876747557045736</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0289991915662404</v>
+        <v>0.02152929399515379</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1547340511.374902</v>
+        <v>1651746818.200268</v>
       </c>
       <c r="F9" t="n">
-        <v>0.169090555522502</v>
+        <v>0.1956204028587138</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03184254515435832</v>
+        <v>0.02281075729105264</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4404848530.068611</v>
+        <v>4571160908.480962</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1399985964709922</v>
+        <v>0.2065842134851831</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03415881637722162</v>
+        <v>0.04396502640346717</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4193317050.551725</v>
+        <v>2760222877.475645</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1373990237725045</v>
+        <v>0.1604568564505157</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03736893512166337</v>
+        <v>0.04323930406009397</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2929926178.195017</v>
+        <v>2149359698.33624</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1632476656839065</v>
+        <v>0.1719060397059807</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04658225130863951</v>
+        <v>0.03817617138671273</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4642279101.469001</v>
+        <v>3956032864.719475</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06615209592158974</v>
+        <v>0.07717039129359733</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02044770470181849</v>
+        <v>0.01917518023021082</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2474743896.686968</v>
+        <v>2425686274.591652</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1400608948538565</v>
+        <v>0.11883519747285</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03936778814904892</v>
+        <v>0.03534497822262319</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1328704737.688771</v>
+        <v>1375129361.072188</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07506692845064006</v>
+        <v>0.09608458624571858</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03379181441877373</v>
+        <v>0.04724618927648357</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2597402185.551383</v>
+        <v>2617278172.428292</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0720558560877276</v>
+        <v>0.1066178611480163</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03923593888565356</v>
+        <v>0.04124813194264702</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4298467205.300771</v>
+        <v>4719152719.129745</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1246496273601505</v>
+        <v>0.1521204651811608</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0339148165427959</v>
+        <v>0.03238877486993079</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3894618716.001249</v>
+        <v>3157595344.399769</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1501090280685857</v>
+        <v>0.1197141760080859</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02759988635938524</v>
+        <v>0.02293526494664201</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>855254222.8435243</v>
+        <v>933355187.1936265</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1154266309059777</v>
+        <v>0.1748753109314947</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02533488894340648</v>
+        <v>0.02487347984106874</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1988992848.944025</v>
+        <v>1966152579.787642</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09859331197784828</v>
+        <v>0.1045638409710218</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0193905313874368</v>
+        <v>0.03068643386716822</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1755440956.403486</v>
+        <v>2290021997.746933</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07794787999473506</v>
+        <v>0.07411059352593542</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04333066894138186</v>
+        <v>0.0454361076545922</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3475324842.633786</v>
+        <v>3266973997.335866</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1410526363567221</v>
+        <v>0.1362954832047857</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04369031523954628</v>
+        <v>0.03978162896573845</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1260697355.547988</v>
+        <v>1162340153.838281</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1465342585395622</v>
+        <v>0.1256221861327477</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04683044887214173</v>
+        <v>0.03755755258543027</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2841408228.847997</v>
+        <v>3086084461.989783</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1114985543808232</v>
+        <v>0.1218043192271689</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02433650062297853</v>
+        <v>0.02378511041711497</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1126071523.332558</v>
+        <v>1214856398.139651</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07693078204732447</v>
+        <v>0.1146125150331498</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02610777608753457</v>
+        <v>0.03039540055156677</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1405557420.203123</v>
+        <v>1164215232.084901</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1102826746211678</v>
+        <v>0.1085667738780321</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03423935892948452</v>
+        <v>0.03193240127859061</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2870444579.261626</v>
+        <v>3117811612.36265</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1245730874532648</v>
+        <v>0.1393078976304212</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01937288911382913</v>
+        <v>0.02201064580181874</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2813490373.224137</v>
+        <v>3502278628.690414</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1482702882590649</v>
+        <v>0.1363307900723293</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05006279458468542</v>
+        <v>0.03958079291783536</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5493820916.710338</v>
+        <v>5491875169.647613</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1087755788630679</v>
+        <v>0.1451801206535145</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03316046207322042</v>
+        <v>0.04537879036353341</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1806258294.388895</v>
+        <v>1932638454.12874</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0967394212406348</v>
+        <v>0.1120232117237168</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03134242561101349</v>
+        <v>0.03725935810628991</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1047940962.888225</v>
+        <v>1446568089.49345</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07497682356160326</v>
+        <v>0.1078497528553766</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04305550876679153</v>
+        <v>0.03165107692797425</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1481717705.112049</v>
+        <v>1636399552.378707</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07905959992258532</v>
+        <v>0.1100687475440672</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03459248631016356</v>
+        <v>0.03562976730057136</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2605057866.312621</v>
+        <v>2997913143.8989</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1888416584259129</v>
+        <v>0.1695567087170675</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04131199088610621</v>
+        <v>0.05278440625418063</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1005721650.618885</v>
+        <v>1201298228.522713</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07733094550687993</v>
+        <v>0.09086976387346371</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02059375704193083</v>
+        <v>0.02762075267702627</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1244893537.78035</v>
+        <v>936771895.5644729</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1039306788260702</v>
+        <v>0.1180855848378785</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03012864597634369</v>
+        <v>0.02953701967237766</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2133590255.005183</v>
+        <v>3196975684.291478</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1159987141305898</v>
+        <v>0.172218945941429</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02166237151452962</v>
+        <v>0.02196969991606317</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2209917970.551274</v>
+        <v>2556084145.589867</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07611985241855401</v>
+        <v>0.08335919288868271</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04078391530194696</v>
+        <v>0.02635777224593803</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2150124740.873649</v>
+        <v>2029908044.65626</v>
       </c>
       <c r="F38" t="n">
-        <v>0.10848532102549</v>
+        <v>0.08999272552632225</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03957579218615823</v>
+        <v>0.03522976478145688</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1532254252.911329</v>
+        <v>1751488434.849252</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1312359232836826</v>
+        <v>0.1733749381097158</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0275144882329117</v>
+        <v>0.02013357196941097</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1142704865.390168</v>
+        <v>1794626131.853038</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1405211025342901</v>
+        <v>0.1256096541211217</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05065270561906974</v>
+        <v>0.04639075408486731</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2071405483.764605</v>
+        <v>2558698731.628613</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1338878980040334</v>
+        <v>0.1001655386931221</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04101094795701051</v>
+        <v>0.03959695181675791</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3286478791.063063</v>
+        <v>3638844168.471908</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08231572882059256</v>
+        <v>0.1040301778148649</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04351493708278708</v>
+        <v>0.03427032085253651</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2834574254.857857</v>
+        <v>2739106169.427053</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1918978657928082</v>
+        <v>0.1390121984862304</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01576475861628828</v>
+        <v>0.01577712583541638</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2284961074.185941</v>
+        <v>1816097464.751012</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09174068345905223</v>
+        <v>0.06873280613157078</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02923423658919604</v>
+        <v>0.03034229960375357</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2084308933.939444</v>
+        <v>1750997539.791504</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1175402732450625</v>
+        <v>0.1892084737250204</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05454229680348172</v>
+        <v>0.04170505500067517</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5604479003.124208</v>
+        <v>4739227189.45815</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1193120052806379</v>
+        <v>0.1087939390223694</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03780563599377903</v>
+        <v>0.05921013368126534</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3723638136.941462</v>
+        <v>4740372542.281029</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1335382551553273</v>
+        <v>0.1690680921935669</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04197049576822454</v>
+        <v>0.05688877255193553</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3948051335.501052</v>
+        <v>4136070767.855351</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09517071601436417</v>
+        <v>0.07480804715919254</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03804278312980903</v>
+        <v>0.03883064949038835</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1407853820.567249</v>
+        <v>1785355434.639752</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1694188736797925</v>
+        <v>0.1187227330805616</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02955007350620598</v>
+        <v>0.0291251909825802</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4043005858.892827</v>
+        <v>3886964762.562895</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1191662184427246</v>
+        <v>0.138498062239444</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03888021064786326</v>
+        <v>0.0493121748515698</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1473004578.965726</v>
+        <v>1115240472.578106</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1393187964996733</v>
+        <v>0.1811300342442423</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03673578212922665</v>
+        <v>0.03660608168636139</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4516284370.299512</v>
+        <v>3455113466.149065</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1122023970619142</v>
+        <v>0.1317109832610554</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05482774487147798</v>
+        <v>0.06123644023715437</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3209658299.621653</v>
+        <v>3638712709.941451</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1720244229881928</v>
+        <v>0.125612112506041</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0351593103898823</v>
+        <v>0.0343098089960926</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3982825871.686703</v>
+        <v>4725553097.687799</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1395422252919315</v>
+        <v>0.1353777349704814</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03362124618108628</v>
+        <v>0.04870935040980989</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4970537878.391396</v>
+        <v>3079039180.512443</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2233594746489239</v>
+        <v>0.1715156310707797</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02722393873380599</v>
+        <v>0.02433619480918004</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1167739507.3496</v>
+        <v>1280340865.715664</v>
       </c>
       <c r="F56" t="n">
-        <v>0.144575736037985</v>
+        <v>0.1543864227522542</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04056732834449311</v>
+        <v>0.0480433505698203</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3370097895.918493</v>
+        <v>3900734690.608102</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1759603718727392</v>
+        <v>0.1637668526769712</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02484209727029758</v>
+        <v>0.01683506846136514</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1351694972.226023</v>
+        <v>1172650533.642882</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1315055635573238</v>
+        <v>0.1801365460184299</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03427684955495496</v>
+        <v>0.02793100328893585</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4569869199.28319</v>
+        <v>3990272035.861289</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09207462515679055</v>
+        <v>0.1144140549996029</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05017911045535377</v>
+        <v>0.03898855013032713</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3173891808.307536</v>
+        <v>2559345148.016399</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1522020613176412</v>
+        <v>0.1507568867217808</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02886359558019276</v>
+        <v>0.02698424784003154</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2949332908.257652</v>
+        <v>2397578984.067845</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1191487569450341</v>
+        <v>0.1474094734453355</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03028395869268302</v>
+        <v>0.02556206389866746</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2054412866.455724</v>
+        <v>1725656958.147753</v>
       </c>
       <c r="F62" t="n">
-        <v>0.150898337219028</v>
+        <v>0.1546989003673828</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0371478028658578</v>
+        <v>0.04624059633975863</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5284781740.182583</v>
+        <v>3687892206.417589</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0729650360483623</v>
+        <v>0.1044550128487871</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03382367106261462</v>
+        <v>0.03821091443056403</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5214155306.836043</v>
+        <v>3370073378.948731</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1227207612883295</v>
+        <v>0.149536957614023</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02145831373218462</v>
+        <v>0.03497144081278128</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5046015022.797485</v>
+        <v>4653867775.172575</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1603541715299802</v>
+        <v>0.1569672786396796</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02135796540344184</v>
+        <v>0.02831970498775314</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4667866559.218821</v>
+        <v>3454163510.087322</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1257987856537267</v>
+        <v>0.1403239874159421</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04994692080735329</v>
+        <v>0.04164868052480487</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3184434974.742563</v>
+        <v>3248723183.037371</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07720441434431927</v>
+        <v>0.06833020406683907</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04191842140309569</v>
+        <v>0.04225926630156339</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5346505299.211258</v>
+        <v>5346108212.378665</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1111082368976129</v>
+        <v>0.158979098148034</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04231362917340407</v>
+        <v>0.04220996924541354</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2179084280.656047</v>
+        <v>2300602382.645956</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1715922647772548</v>
+        <v>0.1578794355539373</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03640107205311366</v>
+        <v>0.04860878903133477</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3644240426.425793</v>
+        <v>3365400666.515821</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06585879778921869</v>
+        <v>0.08489589711968522</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03500117521897699</v>
+        <v>0.04539274076932352</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4637412533.949607</v>
+        <v>3533244319.475705</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1474334494205788</v>
+        <v>0.1349548611711856</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02863929700431154</v>
+        <v>0.02246456653332905</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1557528250.977995</v>
+        <v>1686347250.408912</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06765462565609842</v>
+        <v>0.07169876522412275</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03364507622401892</v>
+        <v>0.04596204924178719</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2582899544.017326</v>
+        <v>2754351369.26757</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08578204809959203</v>
+        <v>0.1007691096600498</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04764386681606497</v>
+        <v>0.03821186697131428</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2431585907.145431</v>
+        <v>3315036848.37817</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1592845664152877</v>
+        <v>0.1361982845349268</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02172904860536197</v>
+        <v>0.03158793756570038</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2130108667.665937</v>
+        <v>2013593753.948212</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1174024001719906</v>
+        <v>0.1159351341873908</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03041298440348993</v>
+        <v>0.02331443629721075</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3951609738.687746</v>
+        <v>3410099321.787475</v>
       </c>
       <c r="F76" t="n">
-        <v>0.115854000319989</v>
+        <v>0.09193017560419085</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02669772726923177</v>
+        <v>0.03404885665875879</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1488490956.199646</v>
+        <v>1586268955.338061</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1692246008604112</v>
+        <v>0.149471757778918</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02325084039118185</v>
+        <v>0.02508090310454935</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4271487051.690763</v>
+        <v>3991359807.288615</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1133095256591901</v>
+        <v>0.1093144004652922</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04723840974319404</v>
+        <v>0.05001416297369263</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1676382925.933715</v>
+        <v>1180676985.100389</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1646188202807465</v>
+        <v>0.1217584948685728</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02642665929647369</v>
+        <v>0.03197196472478915</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5529693835.21959</v>
+        <v>3602051182.137234</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1059299820412527</v>
+        <v>0.08332085953783272</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03357891250646747</v>
+        <v>0.03757870095926595</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3682462574.679861</v>
+        <v>3430747817.727084</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1351424799552568</v>
+        <v>0.09243637189369334</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02796672091686491</v>
+        <v>0.03222602082734444</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4445538353.020074</v>
+        <v>3819870125.888696</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1881431662795798</v>
+        <v>0.1604914735406262</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02612863174033036</v>
+        <v>0.0254421786382996</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2355841243.525481</v>
+        <v>1747336361.715882</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1089654247929705</v>
+        <v>0.132349518935006</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02758490772889211</v>
+        <v>0.03769624397078936</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1663947985.78046</v>
+        <v>1891052003.582314</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1002217680884769</v>
+        <v>0.1076617444027831</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0419012721487</v>
+        <v>0.03781754371145567</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3163419303.511508</v>
+        <v>3363713922.246304</v>
       </c>
       <c r="F85" t="n">
-        <v>0.13330649583902</v>
+        <v>0.156807404720743</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04836370663305172</v>
+        <v>0.04259555331261648</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1906173164.567784</v>
+        <v>2389300479.204626</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1228193799399609</v>
+        <v>0.1128727637288458</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01725017790482208</v>
+        <v>0.02360194559611229</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1507710225.00776</v>
+        <v>1265079317.429593</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1312487170545012</v>
+        <v>0.1187541204676729</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03904587976350226</v>
+        <v>0.04228188257226817</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3098269451.93331</v>
+        <v>2669960396.077284</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1383351220838651</v>
+        <v>0.1103814178951422</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02890777743069857</v>
+        <v>0.03179385206584253</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3413125639.587771</v>
+        <v>2794481447.009878</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1018381923170478</v>
+        <v>0.1208476833855098</v>
       </c>
       <c r="G89" t="n">
-        <v>0.029781665236684</v>
+        <v>0.03573525429856998</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2103184979.684926</v>
+        <v>1341074888.363851</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1051025981581159</v>
+        <v>0.1267056051695047</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04917527654223658</v>
+        <v>0.05224981542992092</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1879290639.52999</v>
+        <v>1303258710.319962</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1206064916220051</v>
+        <v>0.1959363963779338</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04776338655810114</v>
+        <v>0.04338375005507795</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2679581197.127405</v>
+        <v>2319370166.744352</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07272460032933557</v>
+        <v>0.09401514706823313</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03647428283698255</v>
+        <v>0.02993750680567677</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4601573908.20153</v>
+        <v>4678460081.872122</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09399077990022291</v>
+        <v>0.1353882237298505</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04673946661755431</v>
+        <v>0.04366431584071571</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2055198185.822847</v>
+        <v>2222510162.18611</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1496683514054229</v>
+        <v>0.1193960297352421</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03240041519845061</v>
+        <v>0.0408403177697054</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2780654750.481</v>
+        <v>2562563058.172892</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1383732445386365</v>
+        <v>0.08387825208173083</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0457682341629904</v>
+        <v>0.04047749137239294</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2241700315.837828</v>
+        <v>2123644358.8484</v>
       </c>
       <c r="F96" t="n">
-        <v>0.103015420553067</v>
+        <v>0.1343571452454432</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04692028453516083</v>
+        <v>0.02981918837716304</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4249713560.494362</v>
+        <v>4639292276.926297</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1212645077846507</v>
+        <v>0.1466532525882286</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02729220221990636</v>
+        <v>0.01976284841917095</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2516078974.946381</v>
+        <v>3114584362.190533</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1013044233439676</v>
+        <v>0.1178397319624579</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03052059766553597</v>
+        <v>0.0310724749178179</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3085366070.260388</v>
+        <v>2100140315.843208</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1413790470060647</v>
+        <v>0.117486223434189</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03164592059651482</v>
+        <v>0.03089400443934792</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3634061459.451392</v>
+        <v>4084969508.871632</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1176459783539667</v>
+        <v>0.1132456324250041</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02722229102551109</v>
+        <v>0.02800608249887564</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2451375773.67853</v>
+        <v>3277954525.409616</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1620538892595805</v>
+        <v>0.2181679963600263</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03623823656989195</v>
+        <v>0.04375804863135788</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_480.xlsx
+++ b/output/fit_clients/fit_round_480.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1981625001.373178</v>
+        <v>2494992906.625146</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1016773338972897</v>
+        <v>0.09336341369096421</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0346905740344761</v>
+        <v>0.03676641827237855</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2431818302.150602</v>
+        <v>2134430429.371694</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1392528087694821</v>
+        <v>0.1166125541929489</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03666303087138242</v>
+        <v>0.04149689416444229</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4331545168.107027</v>
+        <v>3398799220.198137</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1391430600074149</v>
+        <v>0.1268721834873906</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02796908760888169</v>
+        <v>0.02614665646881288</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>242</v>
+      </c>
+      <c r="J4" t="n">
+        <v>478</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2795581161.952155</v>
+        <v>2749580193.336983</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09154025871223796</v>
+        <v>0.08516820114473619</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03424279589798223</v>
+        <v>0.04029361280227537</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>202</v>
+      </c>
+      <c r="J5" t="n">
+        <v>478</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1760005294.245182</v>
+        <v>2333253983.227875</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1027390774447908</v>
+        <v>0.1255523450697544</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05253527515100314</v>
+        <v>0.04211420193703137</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2219020495.452343</v>
+        <v>1936159483.052557</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08089584596174174</v>
+        <v>0.09220784060166208</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04220421506236077</v>
+        <v>0.04580469266308751</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2517321820.669311</v>
+        <v>2816912498.118318</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1876747557045736</v>
+        <v>0.1652097532664627</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02152929399515379</v>
+        <v>0.02801456995089272</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1651746818.200268</v>
+        <v>1852723981.804388</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1956204028587138</v>
+        <v>0.1618578352691523</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02281075729105264</v>
+        <v>0.02654944876857605</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4571160908.480962</v>
+        <v>5571416414.977238</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2065842134851831</v>
+        <v>0.1711639911496564</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04396502640346717</v>
+        <v>0.04200350724562645</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>365</v>
+      </c>
+      <c r="J10" t="n">
+        <v>480</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +816,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2760222877.475645</v>
+        <v>3823858925.802585</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1604568564505157</v>
+        <v>0.1397837752826325</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04323930406009397</v>
+        <v>0.04600446505620103</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>199</v>
+      </c>
+      <c r="J11" t="n">
+        <v>480</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +845,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2149359698.33624</v>
+        <v>2010718829.629664</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1719060397059807</v>
+        <v>0.1436979273121574</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03817617138671273</v>
+        <v>0.05354071453114913</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +880,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3956032864.719475</v>
+        <v>4875884158.590998</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07717039129359733</v>
+        <v>0.06531403782306894</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01917518023021082</v>
+        <v>0.01974179036055316</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>248</v>
+      </c>
+      <c r="J13" t="n">
+        <v>480</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +915,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2425686274.591652</v>
+        <v>2674774873.066328</v>
       </c>
       <c r="F14" t="n">
-        <v>0.11883519747285</v>
+        <v>0.1221220640069503</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03534497822262319</v>
+        <v>0.0407999688590561</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>109</v>
+      </c>
+      <c r="J14" t="n">
+        <v>476</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +950,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1375129361.072188</v>
+        <v>1446250865.581492</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09608458624571858</v>
+        <v>0.09410187839762434</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04724618927648357</v>
+        <v>0.03973803136407246</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +985,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2617278172.428292</v>
+        <v>2684298873.353769</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1066178611480163</v>
+        <v>0.08115590692087751</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04124813194264702</v>
+        <v>0.04242778505577003</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1020,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4719152719.129745</v>
+        <v>4177031888.187542</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1521204651811608</v>
+        <v>0.1228812619710026</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03238877486993079</v>
+        <v>0.03775592515722748</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>234</v>
+      </c>
+      <c r="J17" t="n">
+        <v>480</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1055,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3157595344.399769</v>
+        <v>3629049439.948893</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1197141760080859</v>
+        <v>0.1654388235460161</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02293526494664201</v>
+        <v>0.02244116422409318</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>129</v>
+      </c>
+      <c r="J18" t="n">
+        <v>480</v>
+      </c>
+      <c r="K18" t="n">
+        <v>36.02483892965549</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1092,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>933355187.1936265</v>
+        <v>1064371586.291338</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1748753109314947</v>
+        <v>0.1203082239053196</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02487347984106874</v>
+        <v>0.02694584831925359</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1127,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1966152579.787642</v>
+        <v>2200821327.287536</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1045638409710218</v>
+        <v>0.1537061964792412</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03068643386716822</v>
+        <v>0.02221152279589474</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1162,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2290021997.746933</v>
+        <v>1836469555.792696</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07411059352593542</v>
+        <v>0.07833351273534048</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0454361076545922</v>
+        <v>0.04045305482325123</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1203,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3266973997.335866</v>
+        <v>2435374549.506166</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1362954832047857</v>
+        <v>0.09527470814698709</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03978162896573845</v>
+        <v>0.05148489620240727</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>141</v>
+      </c>
+      <c r="J22" t="n">
+        <v>478</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1232,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1162340153.838281</v>
+        <v>1150269165.061548</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1256221861327477</v>
+        <v>0.1376017400042531</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03755755258543027</v>
+        <v>0.04018919833119621</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1273,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3086084461.989783</v>
+        <v>3138735676.72599</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1218043192271689</v>
+        <v>0.1245910008925824</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02378511041711497</v>
+        <v>0.02810741087989394</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>152</v>
+      </c>
+      <c r="J24" t="n">
+        <v>479</v>
+      </c>
+      <c r="K24" t="n">
+        <v>23.44395031679073</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1214856398.139651</v>
+        <v>1137575374.061401</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1146125150331498</v>
+        <v>0.1199417118878895</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03039540055156677</v>
+        <v>0.0282495957717114</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1164215232.084901</v>
+        <v>1261680637.355623</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1085667738780321</v>
+        <v>0.1198756193377001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03193240127859061</v>
+        <v>0.03368217393128231</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1374,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3117811612.36265</v>
+        <v>4511846863.269649</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1393078976304212</v>
+        <v>0.1043664761334838</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02201064580181874</v>
+        <v>0.01981350186933767</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>213</v>
+      </c>
+      <c r="J27" t="n">
+        <v>480</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1409,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3502278628.690414</v>
+        <v>3745306664.16664</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1363307900723293</v>
+        <v>0.1068974648834435</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03958079291783536</v>
+        <v>0.04455917791653898</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>118</v>
+      </c>
+      <c r="J28" t="n">
+        <v>480</v>
+      </c>
+      <c r="K28" t="n">
+        <v>42.07506997222595</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5491875169.647613</v>
+        <v>4093042007.272048</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1451801206535145</v>
+        <v>0.1470153774006781</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04537879036353341</v>
+        <v>0.03514658143635395</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>381</v>
+      </c>
+      <c r="J29" t="n">
+        <v>479</v>
+      </c>
+      <c r="K29" t="n">
+        <v>29.67381839955997</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1932638454.12874</v>
+        <v>2175952862.459674</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1120232117237168</v>
+        <v>0.08761533382880954</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03725935810628991</v>
+        <v>0.0360731623594233</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1446568089.49345</v>
+        <v>1208252960.883012</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1078497528553766</v>
+        <v>0.09002313394682528</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03165107692797425</v>
+        <v>0.03865426870577798</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1636399552.378707</v>
+        <v>1344475746.993371</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1100687475440672</v>
+        <v>0.1113289519377498</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03562976730057136</v>
+        <v>0.03042731081532764</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2997913143.8989</v>
+        <v>2146540013.215572</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1695567087170675</v>
+        <v>0.1517453382959311</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05278440625418063</v>
+        <v>0.05402257099335457</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1201298228.522713</v>
+        <v>1390693289.797879</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09086976387346371</v>
+        <v>0.07401618419528627</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02762075267702627</v>
+        <v>0.02843538563083596</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1664,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>936771895.5644729</v>
+        <v>1260032823.084365</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1180855848378785</v>
+        <v>0.08993991517337627</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02953701967237766</v>
+        <v>0.03936219718418344</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3196975684.291478</v>
+        <v>2725854457.308326</v>
       </c>
       <c r="F36" t="n">
-        <v>0.172218945941429</v>
+        <v>0.1686085686742678</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02196969991606317</v>
+        <v>0.01884369853322214</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2556084145.589867</v>
+        <v>2664745669.235528</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08335919288868271</v>
+        <v>0.07587037448054874</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02635777224593803</v>
+        <v>0.03406327453135816</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2029908044.65626</v>
+        <v>1781346938.427824</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08999272552632225</v>
+        <v>0.08484470337950421</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03522976478145688</v>
+        <v>0.02543245036285144</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1751488434.849252</v>
+        <v>1385988921.267838</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1733749381097158</v>
+        <v>0.1761281043725094</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02013357196941097</v>
+        <v>0.0268649816354389</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1794626131.853038</v>
+        <v>1388047013.926191</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1256096541211217</v>
+        <v>0.1321948340125806</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04639075408486731</v>
+        <v>0.05201788300200757</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2558698731.628613</v>
+        <v>2588286255.054193</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1001655386931221</v>
+        <v>0.1257334485713799</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03959695181675791</v>
+        <v>0.03640545816851912</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1909,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3638844168.471908</v>
+        <v>2756904177.762833</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1040301778148649</v>
+        <v>0.1208677589828129</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03427032085253651</v>
+        <v>0.04141004028869207</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>208</v>
+      </c>
+      <c r="J42" t="n">
+        <v>478</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1944,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2739106169.427053</v>
+        <v>2168180062.189509</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1390121984862304</v>
+        <v>0.1734108939749504</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01577712583541638</v>
+        <v>0.01982412640362447</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1979,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1816097464.751012</v>
+        <v>1586564604.012447</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06873280613157078</v>
+        <v>0.09076250048817655</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03034229960375357</v>
+        <v>0.0286994986587386</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1750997539.791504</v>
+        <v>1620800810.467526</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1892084737250204</v>
+        <v>0.1946650939532954</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04170505500067517</v>
+        <v>0.03616492154121376</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4739227189.45815</v>
+        <v>4163105973.644092</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1087939390223694</v>
+        <v>0.1766833451169021</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05921013368126534</v>
+        <v>0.0593974937897938</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>283</v>
+      </c>
+      <c r="J46" t="n">
+        <v>479</v>
+      </c>
+      <c r="K46" t="n">
+        <v>28.74877847903675</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4740372542.281029</v>
+        <v>4171953939.498062</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1690680921935669</v>
+        <v>0.153894741267851</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05688877255193553</v>
+        <v>0.04876657720569806</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>217</v>
+      </c>
+      <c r="J47" t="n">
+        <v>480</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4136070767.855351</v>
+        <v>4520617879.59166</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07480804715919254</v>
+        <v>0.08737201648031249</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03883064949038835</v>
+        <v>0.02447915064208254</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>241</v>
+      </c>
+      <c r="J48" t="n">
+        <v>479</v>
+      </c>
+      <c r="K48" t="n">
+        <v>29.70332458892006</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1785355434.639752</v>
+        <v>1966387735.364831</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1187227330805616</v>
+        <v>0.1558819054817465</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0291251909825802</v>
+        <v>0.02826647565212332</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2193,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3886964762.562895</v>
+        <v>2904260386.673336</v>
       </c>
       <c r="F50" t="n">
-        <v>0.138498062239444</v>
+        <v>0.1428609411402663</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0493121748515698</v>
+        <v>0.04608638079233952</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>172</v>
+      </c>
+      <c r="J50" t="n">
+        <v>479</v>
+      </c>
+      <c r="K50" t="n">
+        <v>19.53553693508116</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1115240472.578106</v>
+        <v>1467829741.93833</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1811300342442423</v>
+        <v>0.1924278881465786</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03660608168636139</v>
+        <v>0.04890810581216578</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3455113466.149065</v>
+        <v>4953912220.623719</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1317109832610554</v>
+        <v>0.1018180733956527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06123644023715437</v>
+        <v>0.04234531517071242</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>269</v>
+      </c>
+      <c r="J52" t="n">
+        <v>479</v>
+      </c>
+      <c r="K52" t="n">
+        <v>29.88637568251841</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3638712709.941451</v>
+        <v>3451143016.428675</v>
       </c>
       <c r="F53" t="n">
-        <v>0.125612112506041</v>
+        <v>0.1985612064093184</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0343098089960926</v>
+        <v>0.02456410915344608</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4725553097.687799</v>
+        <v>4059082992.534508</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1353777349704814</v>
+        <v>0.1582216901490615</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04870935040980989</v>
+        <v>0.04881507815878024</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>253</v>
+      </c>
+      <c r="J54" t="n">
+        <v>479</v>
+      </c>
+      <c r="K54" t="n">
+        <v>30.20501195597299</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3079039180.512443</v>
+        <v>3128453594.754414</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1715156310707797</v>
+        <v>0.1757465312859246</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02433619480918004</v>
+        <v>0.03175838067065449</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>237</v>
+      </c>
+      <c r="J55" t="n">
+        <v>478</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1280340865.715664</v>
+        <v>1538252940.507384</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1543864227522542</v>
+        <v>0.1255861151066916</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0480433505698203</v>
+        <v>0.04468939090291488</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3900734690.608102</v>
+        <v>3765694835.59071</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1637668526769712</v>
+        <v>0.1140398945464601</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01683506846136514</v>
+        <v>0.01924024951293911</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>207</v>
+      </c>
+      <c r="J57" t="n">
+        <v>479</v>
+      </c>
+      <c r="K57" t="n">
+        <v>27.62370994064277</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1172650533.642882</v>
+        <v>1272559778.570502</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1801365460184299</v>
+        <v>0.1582908730076378</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02793100328893585</v>
+        <v>0.03087806909234243</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3990272035.861289</v>
+        <v>4565413693.090224</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1144140549996029</v>
+        <v>0.1289967133414007</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03898855013032713</v>
+        <v>0.03628909776155763</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>235</v>
+      </c>
+      <c r="J59" t="n">
+        <v>479</v>
+      </c>
+      <c r="K59" t="n">
+        <v>26.31897325635605</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2559345148.016399</v>
+        <v>2400156291.031784</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1507568867217808</v>
+        <v>0.2034214868283147</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02698424784003154</v>
+        <v>0.0216306294300876</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>97</v>
+      </c>
+      <c r="J60" t="n">
+        <v>477</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2397578984.067845</v>
+        <v>2506764452.92073</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1474094734453355</v>
+        <v>0.1089697453284384</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02556206389866746</v>
+        <v>0.02961495035553035</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1725656958.147753</v>
+        <v>2046769491.613703</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1546989003673828</v>
+        <v>0.1805399162930839</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04624059633975863</v>
+        <v>0.03557187925942949</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3687892206.417589</v>
+        <v>3637206460.543751</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1044550128487871</v>
+        <v>0.08698321368701599</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03821091443056403</v>
+        <v>0.03550878315449707</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>239</v>
+      </c>
+      <c r="J63" t="n">
+        <v>480</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3370073378.948731</v>
+        <v>4302234917.131122</v>
       </c>
       <c r="F64" t="n">
-        <v>0.149536957614023</v>
+        <v>0.1588670223071318</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03497144081278128</v>
+        <v>0.02778166054683214</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>239</v>
+      </c>
+      <c r="J64" t="n">
+        <v>480</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2728,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4653867775.172575</v>
+        <v>4755260275.189186</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1569672786396796</v>
+        <v>0.1332409833232852</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02831970498775314</v>
+        <v>0.02303725838133792</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>337</v>
+      </c>
+      <c r="J65" t="n">
+        <v>480</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3454163510.087322</v>
+        <v>4383204760.277846</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1403239874159421</v>
+        <v>0.1312203803145461</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04164868052480487</v>
+        <v>0.04323039677289824</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>237</v>
+      </c>
+      <c r="J66" t="n">
+        <v>480</v>
+      </c>
+      <c r="K66" t="n">
+        <v>31.49890365102123</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3248723183.037371</v>
+        <v>2757915375.31046</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06833020406683907</v>
+        <v>0.09346033003960545</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04225926630156339</v>
+        <v>0.03921040768035518</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5346108212.378665</v>
+        <v>4438998224.373691</v>
       </c>
       <c r="F68" t="n">
-        <v>0.158979098148034</v>
+        <v>0.1064807460834939</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04220996924541354</v>
+        <v>0.04209676096057566</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>261</v>
+      </c>
+      <c r="J68" t="n">
+        <v>479</v>
+      </c>
+      <c r="K68" t="n">
+        <v>28.43528939107744</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2300602382.645956</v>
+        <v>1544579689.403925</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1578794355539373</v>
+        <v>0.1600581192977877</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04860878903133477</v>
+        <v>0.04865743014736629</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3365400666.515821</v>
+        <v>2441191698.478433</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08489589711968522</v>
+        <v>0.08145545921418293</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04539274076932352</v>
+        <v>0.037561997888747</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3533244319.475705</v>
+        <v>5253281255.889512</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1349548611711856</v>
+        <v>0.1626778405961701</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02246456653332905</v>
+        <v>0.02131238332347058</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>324</v>
+      </c>
+      <c r="J71" t="n">
+        <v>480</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1686347250.408912</v>
+        <v>2234076829.159575</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07169876522412275</v>
+        <v>0.07590392479895867</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04596204924178719</v>
+        <v>0.04546214510295923</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2754351369.26757</v>
+        <v>3494211982.614631</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1007691096600498</v>
+        <v>0.08127948208136372</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03821186697131428</v>
+        <v>0.04118977843430083</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>44</v>
+      </c>
+      <c r="J73" t="n">
+        <v>480</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3047,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3315036848.37817</v>
+        <v>3430221806.245554</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1361982845349268</v>
+        <v>0.1178602757750014</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03158793756570038</v>
+        <v>0.03073858070664678</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>142</v>
+      </c>
+      <c r="J74" t="n">
+        <v>474</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2013593753.948212</v>
+        <v>2039277085.827108</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1159351341873908</v>
+        <v>0.1330960344414895</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02331443629721075</v>
+        <v>0.03761389431299179</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3410099321.787475</v>
+        <v>4193604638.740897</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09193017560419085</v>
+        <v>0.1081917827004548</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03404885665875879</v>
+        <v>0.03379064915556784</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>229</v>
+      </c>
+      <c r="J76" t="n">
+        <v>480</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3152,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1586268955.338061</v>
+        <v>1705159445.32967</v>
       </c>
       <c r="F77" t="n">
-        <v>0.149471757778918</v>
+        <v>0.1124677035387795</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02508090310454935</v>
+        <v>0.02736926411951674</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3181,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3991359807.288615</v>
+        <v>4608895799.830814</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1093144004652922</v>
+        <v>0.1330286926868026</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05001416297369263</v>
+        <v>0.05170856295804026</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>239</v>
+      </c>
+      <c r="J78" t="n">
+        <v>479</v>
+      </c>
+      <c r="K78" t="n">
+        <v>28.29210657493871</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3224,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1180676985.100389</v>
+        <v>1559049558.720422</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1217584948685728</v>
+        <v>0.1446449220541946</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03197196472478915</v>
+        <v>0.03649663525704289</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3253,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3602051182.137234</v>
+        <v>4247145347.086601</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08332085953783272</v>
+        <v>0.09843155015298692</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03757870095926595</v>
+        <v>0.03857765858200336</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>234</v>
+      </c>
+      <c r="J80" t="n">
+        <v>480</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3294,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3430747817.727084</v>
+        <v>4696186975.882581</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09243637189369334</v>
+        <v>0.1269349070652866</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03222602082734444</v>
+        <v>0.03245299016797354</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>224</v>
+      </c>
+      <c r="J81" t="n">
+        <v>480</v>
+      </c>
+      <c r="K81" t="n">
+        <v>30.84953772986335</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3819870125.888696</v>
+        <v>4955869244.833217</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1604914735406262</v>
+        <v>0.2007409599401991</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0254421786382996</v>
+        <v>0.02411424614890202</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>316</v>
+      </c>
+      <c r="J82" t="n">
+        <v>479</v>
+      </c>
+      <c r="K82" t="n">
+        <v>28.63558012419246</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1747336361.715882</v>
+        <v>2462322684.171648</v>
       </c>
       <c r="F83" t="n">
-        <v>0.132349518935006</v>
+        <v>0.1451278612250344</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03769624397078936</v>
+        <v>0.04456663878111334</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1891052003.582314</v>
+        <v>1681738385.561432</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1076617444027831</v>
+        <v>0.09177278492204945</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03781754371145567</v>
+        <v>0.05159155127429866</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3438,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3363713922.246304</v>
+        <v>2603040751.15197</v>
       </c>
       <c r="F85" t="n">
-        <v>0.156807404720743</v>
+        <v>0.1652920249725252</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04259555331261648</v>
+        <v>0.04484460947638226</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>72</v>
+      </c>
+      <c r="J85" t="n">
+        <v>479</v>
+      </c>
+      <c r="K85" t="n">
+        <v>23.25147057013199</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2389300479.204626</v>
+        <v>2661914778.140364</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1128727637288458</v>
+        <v>0.1728621635109492</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02360194559611229</v>
+        <v>0.02243962796483485</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1265079317.429593</v>
+        <v>1413951276.396089</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1187541204676729</v>
+        <v>0.1214107621408097</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04228188257226817</v>
+        <v>0.04307772716312047</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2669960396.077284</v>
+        <v>3511004076.094952</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1103814178951422</v>
+        <v>0.1383954916564653</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03179385206584253</v>
+        <v>0.02819870636863936</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>67</v>
+      </c>
+      <c r="J88" t="n">
+        <v>480</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2794481447.009878</v>
+        <v>3207486114.722128</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1208476833855098</v>
+        <v>0.1048953163639429</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03573525429856998</v>
+        <v>0.04032219754209117</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1341074888.363851</v>
+        <v>2062033125.532693</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1267056051695047</v>
+        <v>0.1054749607848042</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05224981542992092</v>
+        <v>0.05530601381328128</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1303258710.319962</v>
+        <v>1298711102.43357</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1959363963779338</v>
+        <v>0.170544505088931</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04338375005507795</v>
+        <v>0.046749669850559</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2319370166.744352</v>
+        <v>2598017041.914863</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09401514706823313</v>
+        <v>0.1035660572883796</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02993750680567677</v>
+        <v>0.04462640968149769</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4678460081.872122</v>
+        <v>4426497552.723465</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1353882237298505</v>
+        <v>0.1145704515039072</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04366431584071571</v>
+        <v>0.04204460490781106</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>229</v>
+      </c>
+      <c r="J93" t="n">
+        <v>480</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2222510162.18611</v>
+        <v>2207542277.425866</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1193960297352421</v>
+        <v>0.1447252215204769</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0408403177697054</v>
+        <v>0.02920786872445858</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3790,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2562563058.172892</v>
+        <v>2544469361.258369</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08387825208173083</v>
+        <v>0.09469712332328066</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04047749137239294</v>
+        <v>0.04935301500886726</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2123644358.8484</v>
+        <v>1719251530.26789</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1343571452454432</v>
+        <v>0.09959412897852667</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02981918837716304</v>
+        <v>0.03477408193141374</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4639292276.926297</v>
+        <v>3681455345.910875</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1466532525882286</v>
+        <v>0.1608775157415388</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01976284841917095</v>
+        <v>0.02110644887927168</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>250</v>
+      </c>
+      <c r="J97" t="n">
+        <v>479</v>
+      </c>
+      <c r="K97" t="n">
+        <v>23.52396174534494</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3114584362.190533</v>
+        <v>3670957270.096277</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1178397319624579</v>
+        <v>0.1147704430028452</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0310724749178179</v>
+        <v>0.02050836081139414</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>123</v>
+      </c>
+      <c r="J98" t="n">
+        <v>480</v>
+      </c>
+      <c r="K98" t="n">
+        <v>35.33019176066051</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2100140315.843208</v>
+        <v>2992540708.754742</v>
       </c>
       <c r="F99" t="n">
-        <v>0.117486223434189</v>
+        <v>0.1264016794141355</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03089400443934792</v>
+        <v>0.02922767548093722</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4084969508.871632</v>
+        <v>2997729699.027388</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1132456324250041</v>
+        <v>0.1145149211595862</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02800608249887564</v>
+        <v>0.02821039460560428</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>224</v>
+      </c>
+      <c r="J100" t="n">
+        <v>479</v>
+      </c>
+      <c r="K100" t="n">
+        <v>16.2393777707859</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3277954525.409616</v>
+        <v>3029925665.776559</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2181679963600263</v>
+        <v>0.1769086157158628</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04375804863135788</v>
+        <v>0.05310976350766845</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
